--- a/public/dummyDB.xlsx
+++ b/public/dummyDB.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t xml:space="preserve">Customer Name     </t>
   </si>
@@ -220,6 +220,23 @@
       </rPr>
       <t>devsm@abc.com</t>
     </r>
+  </si>
+  <si>
+    <t>Mayank Kakani</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>abc123@xyz.com</t>
+    </r>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
   </si>
 </sst>
 </file>
@@ -570,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1691,7 +1708,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1938,25 +1955,48 @@
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" t="s" s="21">
+      <c r="A11" t="s" s="17">
         <v>38</v>
       </c>
-      <c r="B11" t="s" s="22">
+      <c r="B11" t="s" s="18">
         <v>39</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="19">
         <v>8852649358</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="19">
         <v>33</v>
       </c>
-      <c r="E11" t="s" s="22">
+      <c r="E11" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="22">
+      <c r="F11" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
+        <v>42270</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" t="s" s="21">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s" s="22">
+        <v>41</v>
+      </c>
+      <c r="C12" s="23">
+        <v>9823921283</v>
+      </c>
+      <c r="D12" s="23">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s" s="22">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="G12" s="24">
         <v>42270</v>
       </c>
     </row>
@@ -1972,6 +2012,7 @@
     <hyperlink ref="B9" r:id="rId8" location="" tooltip="" display=""/>
     <hyperlink ref="B10" r:id="rId9" location="" tooltip="" display=""/>
     <hyperlink ref="B11" r:id="rId10" location="" tooltip="" display=""/>
+    <hyperlink ref="B12" r:id="rId11" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
